--- a/PredictionSheets/VM 2014 Tippekonkuranse, Sølve.xlsx
+++ b/PredictionSheets/VM 2014 Tippekonkuranse, Sølve.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R\Documents\GitHub\VMTipping\PredictionSheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="0" windowWidth="25365" windowHeight="14265"/>
+    <workbookView xWindow="2100" yWindow="0" windowWidth="25365" windowHeight="14265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Gruppespilltipp" sheetId="1" r:id="rId1"/>
     <sheet name="Sluttspilltipp" sheetId="2" r:id="rId2"/>
     <sheet name="Kampoppsett" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="137">
   <si>
     <t>Group A</t>
   </si>
@@ -417,12 +422,6 @@
   </si>
   <si>
     <t>Spania</t>
-  </si>
-  <si>
-    <t>Nederland</t>
-  </si>
-  <si>
-    <t>Tyskland</t>
   </si>
   <si>
     <t>Korea</t>
@@ -1772,13 +1771,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1808,7 +1807,7 @@
         <v>45</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -2782,13 +2781,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2814,7 +2813,7 @@
         <v>130</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C4" s="76" t="s">
         <v>23</v>
@@ -2834,7 +2833,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="76" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2842,18 +2841,18 @@
         <v>131</v>
       </c>
       <c r="B6" s="76" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C6" s="76" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="B7" s="76" t="s">
         <v>16</v>
@@ -2862,7 +2861,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="76" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2884,7 +2883,7 @@
         <v>32</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2892,13 +2891,13 @@
         <v>131</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2952,7 +2951,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
